--- a/1-SystemDocs/System_spec_v1.xlsx
+++ b/1-SystemDocs/System_spec_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="625">
   <si>
     <t>ETH*</t>
   </si>
@@ -1275,18 +1275,12 @@
     <t>Sensor reading, MSB:LSB</t>
   </si>
   <si>
-    <t>Sensor reads 0x01A1 = decimal 417</t>
-  </si>
-  <si>
     <t>Analog input A1.1</t>
   </si>
   <si>
     <t>0xA0</t>
   </si>
   <si>
-    <t>Sensor reads 0x01A0 = decimal 410</t>
-  </si>
-  <si>
     <t>end of data</t>
   </si>
   <si>
@@ -1530,12 +1524,6 @@
     <t>Blinking</t>
   </si>
   <si>
-    <t>Button press registered, pressed 1 to 10s, measurement will start on button release</t>
-  </si>
-  <si>
-    <t>Button press registered, pressed 10 - 15s, Unit will restart on release or after 15s from press</t>
-  </si>
-  <si>
     <t>Measuring</t>
   </si>
   <si>
@@ -1863,20 +1851,116 @@
     <t>0V</t>
   </si>
   <si>
+    <t>300mV</t>
+  </si>
+  <si>
     <t>67%VDD</t>
   </si>
   <si>
     <t>20%VDD</t>
   </si>
   <si>
-    <t>280mV</t>
+    <t>TIACN</t>
+  </si>
+  <si>
+    <t>REFCN</t>
+  </si>
+  <si>
+    <t>MODECN</t>
+  </si>
+  <si>
+    <t>0b11000</t>
+  </si>
+  <si>
+    <t>0b11001</t>
+  </si>
+  <si>
+    <t>0b10101</t>
+  </si>
+  <si>
+    <t>0b10100</t>
+  </si>
+  <si>
+    <t>0b10010</t>
+  </si>
+  <si>
+    <t>0b01100</t>
+  </si>
+  <si>
+    <t>0b01001</t>
+  </si>
+  <si>
+    <t>0b00000000</t>
+  </si>
+  <si>
+    <t>0b01000000</t>
+  </si>
+  <si>
+    <t>50%VDD</t>
+  </si>
+  <si>
+    <t>0b00100111</t>
+  </si>
+  <si>
+    <t>0b001</t>
+  </si>
+  <si>
+    <t>0b011</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>Sensor reads int16 0x01A1 = decimal 417</t>
+  </si>
+  <si>
+    <t>Sensor reads int16 0x01A0 = decimal 410</t>
+  </si>
+  <si>
+    <t>Light temperature and humidity, change to unsigned saving</t>
+  </si>
+  <si>
+    <t>int16</t>
+  </si>
+  <si>
+    <t>uint16</t>
+  </si>
+  <si>
+    <t>Data Representation in datagram</t>
+  </si>
+  <si>
+    <t>not needed for Labview saved data or SD saved data (already converted do decimal)</t>
+  </si>
+  <si>
+    <t>Sample data</t>
+  </si>
+  <si>
+    <t>Raw value</t>
+  </si>
+  <si>
+    <t>Converted</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Add sampling period to SD file or time</t>
+  </si>
+  <si>
+    <t>not complete formula</t>
+  </si>
+  <si>
+    <t>Button press registered, pressed 1 to 4s, measurement will start on button release</t>
+  </si>
+  <si>
+    <t>Button press registered, pressed 4 - 15s, Unit will restart on release or after 15s from press</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1994,6 +2078,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -2087,7 +2178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2317,12 +2408,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2593,6 +2695,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
@@ -3438,7 +3549,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,31 +3597,31 @@
     </row>
     <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C9" s="15"/>
     </row>
     <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="55" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="55" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="55" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C13" s="15"/>
     </row>
@@ -3551,7 +3662,7 @@
     </row>
     <row r="21" spans="2:2" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="55" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="21" x14ac:dyDescent="0.35">
@@ -3617,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L108"/>
+  <dimension ref="B1:L392"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E88" sqref="B84:E88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,6 +3743,7 @@
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -3643,49 +3755,55 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L2" s="76"/>
     </row>
-    <row r="3" spans="2:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="90" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>516</v>
+      </c>
+      <c r="I3" s="157" t="s">
+        <v>616</v>
       </c>
       <c r="K3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L3" s="76"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="107" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D4" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="108" t="s">
         <v>406</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>521</v>
-      </c>
-      <c r="F4" s="108" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" s="108" t="s">
-        <v>408</v>
       </c>
       <c r="H4" s="109" t="s">
         <v>243</v>
       </c>
+      <c r="I4" s="154" t="s">
+        <v>615</v>
+      </c>
       <c r="K4" s="105" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L4" s="106" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -3697,23 +3815,26 @@
         <v>0</v>
       </c>
       <c r="D5" s="111" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H5" s="67"/>
+      <c r="I5" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K5" s="101">
         <v>6</v>
       </c>
       <c r="L5" s="102" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -3725,24 +3846,27 @@
         <v>1</v>
       </c>
       <c r="D6" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E6" s="111" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H6" s="67"/>
+      <c r="I6" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K6" s="101">
         <f>K5+3</f>
         <v>9</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -3754,24 +3878,27 @@
         <v>2</v>
       </c>
       <c r="D7" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H7" s="67"/>
+      <c r="I7" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K7" s="101">
         <f t="shared" ref="K7:K16" si="1">K6+3</f>
         <v>12</v>
       </c>
       <c r="L7" s="102" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -3783,24 +3910,27 @@
         <v>3</v>
       </c>
       <c r="D8" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H8" s="67"/>
+      <c r="I8" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K8" s="101">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L8" s="102" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -3812,24 +3942,27 @@
         <v>4</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H9" s="67"/>
+      <c r="I9" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K9" s="101">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L9" s="102" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -3841,24 +3974,27 @@
         <v>5</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H10" s="67"/>
+      <c r="I10" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K10" s="101">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="L10" s="102" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -3870,24 +4006,27 @@
         <v>6</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H11" s="67"/>
+      <c r="I11" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K11" s="101">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L11" s="102" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3899,24 +4038,27 @@
         <v>7</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E12" s="120" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H12" s="69"/>
+      <c r="I12" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K12" s="101">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="L12" s="102" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -3928,24 +4070,27 @@
         <v>16</v>
       </c>
       <c r="D13" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E13" s="123" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H13" s="29"/>
+      <c r="I13" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K13" s="101">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L13" s="102" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -3957,24 +4102,27 @@
         <v>17</v>
       </c>
       <c r="D14" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H14" s="32"/>
+      <c r="I14" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K14" s="101">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="L14" s="102" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -3986,24 +4134,27 @@
         <v>18</v>
       </c>
       <c r="D15" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H15" s="32"/>
+      <c r="I15" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K15" s="101">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="L15" s="102" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4015,24 +4166,27 @@
         <v>19</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H16" s="32"/>
+      <c r="I16" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K16" s="103">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="L16" s="104" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -4044,18 +4198,21 @@
         <v>20</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H17" s="32"/>
+      <c r="I17" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="L17" s="76"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -4067,18 +4224,21 @@
         <v>21</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E18" s="111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H18" s="32"/>
+      <c r="I18" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="L18" s="76"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4090,18 +4250,21 @@
         <v>22</v>
       </c>
       <c r="D19" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E19" s="111" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H19" s="32"/>
+      <c r="I19" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4113,23 +4276,26 @@
         <v>23</v>
       </c>
       <c r="D20" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E20" s="120" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H20" s="36"/>
+      <c r="I20" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K20" s="116" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -4141,18 +4307,21 @@
         <v>32</v>
       </c>
       <c r="D21" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E21" s="123" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H21" s="29"/>
+      <c r="I21" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K21" s="30">
         <v>28000</v>
       </c>
@@ -4170,20 +4339,23 @@
         <v>33</v>
       </c>
       <c r="D22" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E22" s="111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H22" s="32"/>
+      <c r="I22" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K22" s="117" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L22" s="32"/>
     </row>
@@ -4196,18 +4368,21 @@
         <v>34</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E23" s="111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H23" s="32"/>
+      <c r="I23" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K23" s="34">
         <v>23000</v>
       </c>
@@ -4225,18 +4400,21 @@
         <v>35</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E24" s="111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H24" s="32"/>
+      <c r="I24" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K24" s="76"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -4248,18 +4426,21 @@
         <v>36</v>
       </c>
       <c r="D25" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H25" s="32"/>
+      <c r="I25" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K25" s="76"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -4271,18 +4452,21 @@
         <v>37</v>
       </c>
       <c r="D26" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E26" s="111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H26" s="32"/>
+      <c r="I26" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="K26" s="76"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -4294,18 +4478,21 @@
         <v>38</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H27" s="32"/>
+      <c r="I27" s="155" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="124">
@@ -4316,18 +4503,21 @@
         <v>39</v>
       </c>
       <c r="D28" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E28" s="120" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H28" s="36"/>
+      <c r="I28" s="155" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="121">
@@ -4338,18 +4528,21 @@
         <v>48</v>
       </c>
       <c r="D29" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E29" s="123" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H29" s="29"/>
+      <c r="I29" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="J29" s="115"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -4361,18 +4554,21 @@
         <v>49</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E30" s="111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H30" s="32"/>
+      <c r="I30" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="J30" s="115"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -4384,18 +4580,21 @@
         <v>50</v>
       </c>
       <c r="D31" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E31" s="111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H31" s="32"/>
+      <c r="I31" s="155" t="s">
+        <v>613</v>
+      </c>
       <c r="J31" s="115"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -4407,20 +4606,23 @@
         <v>51</v>
       </c>
       <c r="D32" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E32" s="111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="118">
         <v>34</v>
       </c>
@@ -4429,20 +4631,23 @@
         <v>52</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E33" s="111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="118">
         <v>35</v>
       </c>
@@ -4451,20 +4656,23 @@
         <v>53</v>
       </c>
       <c r="D34" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E34" s="111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="118">
         <v>36</v>
       </c>
@@ -4473,20 +4681,23 @@
         <v>54</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E35" s="111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="118">
         <v>37</v>
       </c>
@@ -4495,20 +4706,23 @@
         <v>55</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E36" s="111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H36" s="32"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="126">
         <v>40</v>
       </c>
@@ -4517,20 +4731,23 @@
         <v>64</v>
       </c>
       <c r="D37" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E37" s="123" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H37" s="127"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="110">
         <v>41</v>
       </c>
@@ -4539,20 +4756,23 @@
         <v>65</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H38" s="67"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="110">
         <v>42</v>
       </c>
@@ -4561,20 +4781,23 @@
         <v>66</v>
       </c>
       <c r="D39" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E39" s="111" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H39" s="67"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="110">
         <v>43</v>
       </c>
@@ -4583,20 +4806,23 @@
         <v>67</v>
       </c>
       <c r="D40" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E40" s="111" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H40" s="67"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="110">
         <v>44</v>
       </c>
@@ -4605,20 +4831,23 @@
         <v>68</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H41" s="67"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="110">
         <v>45</v>
       </c>
@@ -4627,20 +4856,23 @@
         <v>69</v>
       </c>
       <c r="D42" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H42" s="67"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="110">
         <v>46</v>
       </c>
@@ -4649,20 +4881,23 @@
         <v>70</v>
       </c>
       <c r="D43" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E43" s="111" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H43" s="67"/>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="119">
         <v>47</v>
       </c>
@@ -4671,20 +4906,23 @@
         <v>71</v>
       </c>
       <c r="D44" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E44" s="120" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H44" s="69"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="118">
         <v>50</v>
       </c>
@@ -4693,20 +4931,23 @@
         <v>80</v>
       </c>
       <c r="D45" s="111" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E45" s="111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="118">
         <v>51</v>
       </c>
@@ -4715,20 +4956,23 @@
         <v>81</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H46" s="32"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="118">
         <v>52</v>
       </c>
@@ -4737,20 +4981,23 @@
         <v>82</v>
       </c>
       <c r="D47" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F47" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G47" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H47" s="32"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="118">
         <v>53</v>
       </c>
@@ -4759,20 +5006,23 @@
         <v>83</v>
       </c>
       <c r="D48" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E48" s="111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H48" s="32"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="118">
         <v>54</v>
       </c>
@@ -4781,20 +5031,23 @@
         <v>84</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E49" s="111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H49" s="32"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="118">
         <v>55</v>
       </c>
@@ -4803,20 +5056,23 @@
         <v>85</v>
       </c>
       <c r="D50" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E50" s="111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H50" s="32"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="118">
         <v>56</v>
       </c>
@@ -4825,20 +5081,23 @@
         <v>86</v>
       </c>
       <c r="D51" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E51" s="111" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G51" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H51" s="32"/>
-    </row>
-    <row r="52" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="124">
         <v>57</v>
       </c>
@@ -4847,20 +5106,23 @@
         <v>87</v>
       </c>
       <c r="D52" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E52" s="120" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="121">
         <v>60</v>
       </c>
@@ -4869,20 +5131,23 @@
         <v>96</v>
       </c>
       <c r="D53" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E53" s="123" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H53" s="29"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="118">
         <v>61</v>
       </c>
@@ -4891,20 +5156,23 @@
         <v>97</v>
       </c>
       <c r="D54" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E54" s="111" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="118">
         <v>62</v>
       </c>
@@ -4913,20 +5181,23 @@
         <v>98</v>
       </c>
       <c r="D55" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E55" s="111" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G55" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="118">
         <v>63</v>
       </c>
@@ -4935,20 +5206,23 @@
         <v>99</v>
       </c>
       <c r="D56" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E56" s="111" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="118">
         <v>64</v>
       </c>
@@ -4957,20 +5231,23 @@
         <v>100</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E57" s="111" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G57" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H57" s="32"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="118">
         <v>65</v>
       </c>
@@ -4979,20 +5256,23 @@
         <v>101</v>
       </c>
       <c r="D58" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E58" s="111" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H58" s="32"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="118">
         <v>66</v>
       </c>
@@ -5001,20 +5281,23 @@
         <v>102</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E59" s="111" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G59" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H59" s="32"/>
-    </row>
-    <row r="60" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I59" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="124">
         <v>67</v>
       </c>
@@ -5023,20 +5306,23 @@
         <v>103</v>
       </c>
       <c r="D60" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E60" s="120" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H60" s="36"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="121">
         <v>70</v>
       </c>
@@ -5045,20 +5331,23 @@
         <v>112</v>
       </c>
       <c r="D61" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E61" s="123" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H61" s="29"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="118">
         <v>71</v>
       </c>
@@ -5067,20 +5356,23 @@
         <v>113</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E62" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H62" s="32"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="118">
         <v>72</v>
       </c>
@@ -5089,20 +5381,23 @@
         <v>114</v>
       </c>
       <c r="D63" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E63" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H63" s="32"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="118">
         <v>73</v>
       </c>
@@ -5111,20 +5406,23 @@
         <v>115</v>
       </c>
       <c r="D64" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E64" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H64" s="32"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="118">
         <v>74</v>
       </c>
@@ -5133,20 +5431,23 @@
         <v>116</v>
       </c>
       <c r="D65" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E65" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H65" s="32"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="118">
         <v>75</v>
       </c>
@@ -5155,20 +5456,23 @@
         <v>117</v>
       </c>
       <c r="D66" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E66" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H66" s="32"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="118">
         <v>76</v>
       </c>
@@ -5177,20 +5481,23 @@
         <v>118</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E67" s="111" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H67" s="32"/>
-    </row>
-    <row r="68" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="124">
         <v>77</v>
       </c>
@@ -5199,20 +5506,23 @@
         <v>119</v>
       </c>
       <c r="D68" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E68" s="120" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G68" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H68" s="36"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="126">
         <v>80</v>
       </c>
@@ -5221,20 +5531,23 @@
         <v>128</v>
       </c>
       <c r="D69" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E69" s="123" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H69" s="127"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="110">
         <v>81</v>
       </c>
@@ -5243,20 +5556,23 @@
         <v>129</v>
       </c>
       <c r="D70" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E70" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H70" s="67"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="110">
         <v>82</v>
       </c>
@@ -5265,20 +5581,23 @@
         <v>130</v>
       </c>
       <c r="D71" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E71" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H71" s="67"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="110">
         <v>83</v>
       </c>
@@ -5287,20 +5606,23 @@
         <v>131</v>
       </c>
       <c r="D72" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E72" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H72" s="67"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="110">
         <v>84</v>
       </c>
@@ -5309,20 +5631,23 @@
         <v>132</v>
       </c>
       <c r="D73" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E73" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H73" s="67"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="110">
         <v>85</v>
       </c>
@@ -5331,20 +5656,23 @@
         <v>133</v>
       </c>
       <c r="D74" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E74" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H74" s="67"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="110">
         <v>86</v>
       </c>
@@ -5353,20 +5681,23 @@
         <v>134</v>
       </c>
       <c r="D75" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E75" s="111" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H75" s="67"/>
-    </row>
-    <row r="76" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="119">
         <v>87</v>
       </c>
@@ -5375,20 +5706,23 @@
         <v>135</v>
       </c>
       <c r="D76" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E76" s="120" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F76" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H76" s="69"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="118">
         <v>90</v>
       </c>
@@ -5397,20 +5731,23 @@
         <v>144</v>
       </c>
       <c r="D77" s="111" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E77" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H77" s="32"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="118">
         <v>91</v>
       </c>
@@ -5419,20 +5756,23 @@
         <v>145</v>
       </c>
       <c r="D78" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E78" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H78" s="32"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="118">
         <v>92</v>
       </c>
@@ -5441,20 +5781,23 @@
         <v>146</v>
       </c>
       <c r="D79" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E79" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H79" s="32"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="118">
         <v>93</v>
       </c>
@@ -5463,20 +5806,23 @@
         <v>147</v>
       </c>
       <c r="D80" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E80" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H80" s="32"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="118">
         <v>94</v>
       </c>
@@ -5485,20 +5831,23 @@
         <v>148</v>
       </c>
       <c r="D81" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E81" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H81" s="32"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="118">
         <v>95</v>
       </c>
@@ -5507,20 +5856,23 @@
         <v>149</v>
       </c>
       <c r="D82" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E82" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H82" s="32"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="118">
         <v>96</v>
       </c>
@@ -5529,20 +5881,23 @@
         <v>150</v>
       </c>
       <c r="D83" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E83" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H83" s="32"/>
-    </row>
-    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I83" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="124">
         <v>97</v>
       </c>
@@ -5551,372 +5906,423 @@
         <v>151</v>
       </c>
       <c r="D84" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E84" s="120" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G84" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H84" s="36"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="121" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C85" s="122">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="D85" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E85" s="123" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F85" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H85" s="29"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="118" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C86" s="10">
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="D86" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E86" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H86" s="32"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="118" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C87" s="10">
         <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="D87" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E87" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H87" s="32"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="118" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C88" s="10">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
       <c r="D88" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E88" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H88" s="32"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="118" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C89" s="10">
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
       <c r="D89" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E89" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H89" s="32"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="118" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C90" s="10">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="D90" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E90" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H90" s="32"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="118" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C91" s="10">
         <f t="shared" si="4"/>
         <v>166</v>
       </c>
       <c r="D91" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E91" s="111" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H91" s="32"/>
-    </row>
-    <row r="92" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I91" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="124" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C92" s="125">
         <f t="shared" si="4"/>
         <v>167</v>
       </c>
       <c r="D92" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E92" s="120" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G92" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H92" s="36"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="121" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C93" s="122">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
       <c r="D93" s="123" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E93" s="123" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G93" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H93" s="29"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="118" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C94" s="10">
         <f t="shared" si="4"/>
         <v>177</v>
       </c>
       <c r="D94" s="111" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E94" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H94" s="32"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="118" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C95" s="10">
         <f t="shared" si="4"/>
         <v>178</v>
       </c>
       <c r="D95" s="111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E95" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H95" s="32"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="118" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C96" s="10">
         <f t="shared" si="4"/>
         <v>179</v>
       </c>
       <c r="D96" s="111" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E96" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H96" s="32"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="118" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C97" s="10">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="D97" s="111" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E97" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H97" s="32"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="118" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C98" s="10">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
       <c r="D98" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E98" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H98" s="32"/>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="118" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C99" s="10">
         <f t="shared" si="4"/>
         <v>182</v>
       </c>
       <c r="D99" s="111" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E99" s="111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H99" s="32"/>
-    </row>
-    <row r="100" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I99" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="124" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C100" s="125">
         <f t="shared" si="4"/>
         <v>183</v>
       </c>
       <c r="D100" s="120" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E100" s="120" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F100" s="35" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G100" s="35" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H100" s="36"/>
-    </row>
-    <row r="101" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I100" s="155" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="27" t="s">
         <v>129</v>
       </c>
@@ -5936,156 +6342,3759 @@
         <v>129</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="I101" s="155"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="126" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C102" s="28">
         <f t="shared" ref="C102:C108" si="5">HEX2DEC(B102)</f>
         <v>240</v>
       </c>
       <c r="D102" s="128" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E102" s="128"/>
       <c r="F102" s="122" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G102" s="122" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="I102" s="156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="110" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C103" s="31">
         <f t="shared" si="5"/>
         <v>241</v>
       </c>
       <c r="D103" s="87" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E103" s="87"/>
       <c r="F103" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="I103" s="156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="110" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C104" s="31">
         <f t="shared" si="5"/>
         <v>242</v>
       </c>
       <c r="D104" s="87" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E104" s="87"/>
       <c r="F104" s="10" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H104" s="32" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="I104" s="156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="119" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C105" s="35">
         <f t="shared" si="5"/>
         <v>243</v>
       </c>
       <c r="D105" s="129" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E105" s="129"/>
       <c r="F105" s="125" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G105" s="125" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H105" s="36" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="I105" s="156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="126" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C106" s="28">
         <f t="shared" si="5"/>
         <v>253</v>
       </c>
       <c r="D106" s="128" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E106" s="128"/>
       <c r="F106" s="122" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G106" s="122" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="I106" s="156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="119" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C107" s="125">
         <f t="shared" si="5"/>
         <v>254</v>
       </c>
       <c r="D107" s="129" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E107" s="129"/>
       <c r="F107" s="125" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G107" s="125" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="I107" s="156" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="119" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C108" s="35">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="D108" s="35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E108" s="35"/>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
       <c r="H108" s="36"/>
+      <c r="I108" s="93"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="158" t="s">
+        <v>617</v>
+      </c>
+      <c r="D111" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="158" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" t="s">
+        <v>618</v>
+      </c>
+      <c r="D112" t="s">
+        <v>619</v>
+      </c>
+      <c r="E112" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>64</v>
+      </c>
+      <c r="C113">
+        <v>1746</v>
+      </c>
+      <c r="D113">
+        <f>IF((MOD(B113,16)&lt;6),C113*0.1875/(2^MOD(B113,16)),"nn")</f>
+        <v>327.375</v>
+      </c>
+      <c r="E113" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>64</v>
+      </c>
+      <c r="C114">
+        <v>1766</v>
+      </c>
+      <c r="D114">
+        <f>IF(MOD(B114,16)&lt;6,C114*0.1875/(2^MOD(B114,16)),"aa")</f>
+        <v>331.125</v>
+      </c>
+      <c r="E114" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>64</v>
+      </c>
+      <c r="C115">
+        <v>1785</v>
+      </c>
+      <c r="D115">
+        <f>IF(MOD(B115,16)&lt;6,C115*0.1875/(2^MOD(B115,16)),"aa")</f>
+        <v>334.6875</v>
+      </c>
+      <c r="E115" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>64</v>
+      </c>
+      <c r="C116">
+        <v>1804</v>
+      </c>
+      <c r="D116">
+        <f>IF(MOD(B116,16)&lt;6,C116*0.1875/(2^MOD(B116,16)),"aa")</f>
+        <v>338.25</v>
+      </c>
+      <c r="E116" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>64</v>
+      </c>
+      <c r="C117">
+        <v>1822</v>
+      </c>
+      <c r="D117">
+        <f>IF(MOD(B117,16)&lt;6,C117*0.1875/(2^MOD(B117,16)),"aa")</f>
+        <v>341.625</v>
+      </c>
+      <c r="E117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>64</v>
+      </c>
+      <c r="C118">
+        <v>1840</v>
+      </c>
+      <c r="D118">
+        <f>IF(MOD(B118,16)&lt;6,C118*0.1875/(2^MOD(B118,16)),"aa")</f>
+        <v>345</v>
+      </c>
+      <c r="E118" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>64</v>
+      </c>
+      <c r="C119">
+        <v>1857</v>
+      </c>
+      <c r="D119">
+        <f>IF(MOD(B119,16)&lt;6,C119*0.1875/(2^MOD(B119,16)),"aa")</f>
+        <v>348.1875</v>
+      </c>
+      <c r="E119" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>64</v>
+      </c>
+      <c r="C120">
+        <v>1874</v>
+      </c>
+      <c r="D120">
+        <f>IF(MOD(B120,16)&lt;6,C120*0.1875/(2^MOD(B120,16)),"aa")</f>
+        <v>351.375</v>
+      </c>
+      <c r="E120" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>65</v>
+      </c>
+      <c r="C121">
+        <v>2844</v>
+      </c>
+      <c r="D121">
+        <f>IF(MOD(B121,16)&lt;6,C121*0.1875/(2^MOD(B121,16)),"aa")</f>
+        <v>266.625</v>
+      </c>
+      <c r="E121" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>66</v>
+      </c>
+      <c r="C122">
+        <v>5686</v>
+      </c>
+      <c r="D122">
+        <f>IF(MOD(B122,16)&lt;6,C122*0.1875/(2^MOD(B122,16)),"aa")</f>
+        <v>266.53125</v>
+      </c>
+      <c r="E122" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>67</v>
+      </c>
+      <c r="C123">
+        <v>11074</v>
+      </c>
+      <c r="D123">
+        <f>IF(MOD(B123,16)&lt;6,C123*0.1875/(2^MOD(B123,16)),"aa")</f>
+        <v>259.546875</v>
+      </c>
+      <c r="E123" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>68</v>
+      </c>
+      <c r="C124">
+        <v>19355</v>
+      </c>
+      <c r="D124">
+        <f>IF(MOD(B124,16)&lt;6,C124*0.1875/(2^MOD(B124,16)),"aa")</f>
+        <v>226.81640625</v>
+      </c>
+      <c r="E124" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>68</v>
+      </c>
+      <c r="C125">
+        <v>15336</v>
+      </c>
+      <c r="D125">
+        <f>IF(MOD(B125,16)&lt;6,C125*0.1875/(2^MOD(B125,16)),"aa")</f>
+        <v>179.71875</v>
+      </c>
+      <c r="E125" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>68</v>
+      </c>
+      <c r="C126">
+        <v>12173</v>
+      </c>
+      <c r="D126">
+        <f>IF(MOD(B126,16)&lt;6,C126*0.1875/(2^MOD(B126,16)),"aa")</f>
+        <v>142.65234375</v>
+      </c>
+      <c r="E126" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>68</v>
+      </c>
+      <c r="C127">
+        <v>9665</v>
+      </c>
+      <c r="D127">
+        <f>IF(MOD(B127,16)&lt;6,C127*0.1875/(2^MOD(B127,16)),"aa")</f>
+        <v>113.26171875</v>
+      </c>
+      <c r="E127" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>69</v>
+      </c>
+      <c r="C128">
+        <v>15343</v>
+      </c>
+      <c r="D128">
+        <f>IF(MOD(B128,16)&lt;6,C128*0.1875/(2^MOD(B128,16)),"aa")</f>
+        <v>89.900390625</v>
+      </c>
+      <c r="E128" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>69</v>
+      </c>
+      <c r="C129">
+        <v>12179</v>
+      </c>
+      <c r="D129">
+        <f>IF(MOD(B129,16)&lt;6,C129*0.1875/(2^MOD(B129,16)),"aa")</f>
+        <v>71.361328125</v>
+      </c>
+      <c r="E129" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>69</v>
+      </c>
+      <c r="C130">
+        <v>9666</v>
+      </c>
+      <c r="D130">
+        <f>IF(MOD(B130,16)&lt;6,C130*0.1875/(2^MOD(B130,16)),"aa")</f>
+        <v>56.63671875</v>
+      </c>
+      <c r="E130" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>69</v>
+      </c>
+      <c r="C131">
+        <v>7667</v>
+      </c>
+      <c r="D131">
+        <f>IF(MOD(B131,16)&lt;6,C131*0.1875/(2^MOD(B131,16)),"aa")</f>
+        <v>44.923828125</v>
+      </c>
+      <c r="E131" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>69</v>
+      </c>
+      <c r="C132">
+        <v>6077</v>
+      </c>
+      <c r="D132">
+        <f>IF(MOD(B132,16)&lt;6,C132*0.1875/(2^MOD(B132,16)),"aa")</f>
+        <v>35.607421875</v>
+      </c>
+      <c r="E132" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>69</v>
+      </c>
+      <c r="C133">
+        <v>4816</v>
+      </c>
+      <c r="D133">
+        <f>IF(MOD(B133,16)&lt;6,C133*0.1875/(2^MOD(B133,16)),"aa")</f>
+        <v>28.21875</v>
+      </c>
+      <c r="E133" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>69</v>
+      </c>
+      <c r="C134">
+        <v>3817</v>
+      </c>
+      <c r="D134">
+        <f>IF(MOD(B134,16)&lt;6,C134*0.1875/(2^MOD(B134,16)),"aa")</f>
+        <v>22.365234375</v>
+      </c>
+      <c r="E134" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>69</v>
+      </c>
+      <c r="C135">
+        <v>3021</v>
+      </c>
+      <c r="D135">
+        <f>IF(MOD(B135,16)&lt;6,C135*0.1875/(2^MOD(B135,16)),"aa")</f>
+        <v>17.701171875</v>
+      </c>
+      <c r="E135" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>69</v>
+      </c>
+      <c r="C136">
+        <v>2396</v>
+      </c>
+      <c r="D136">
+        <f>IF(MOD(B136,16)&lt;6,C136*0.1875/(2^MOD(B136,16)),"aa")</f>
+        <v>14.0390625</v>
+      </c>
+      <c r="E136" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>69</v>
+      </c>
+      <c r="C137">
+        <v>1898</v>
+      </c>
+      <c r="D137">
+        <f>IF(MOD(B137,16)&lt;6,C137*0.1875/(2^MOD(B137,16)),"aa")</f>
+        <v>11.12109375</v>
+      </c>
+      <c r="E137" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>69</v>
+      </c>
+      <c r="C138">
+        <v>1508</v>
+      </c>
+      <c r="D138">
+        <f>IF(MOD(B138,16)&lt;6,C138*0.1875/(2^MOD(B138,16)),"aa")</f>
+        <v>8.8359375</v>
+      </c>
+      <c r="E138" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>69</v>
+      </c>
+      <c r="C139">
+        <v>1193</v>
+      </c>
+      <c r="D139">
+        <f>IF(MOD(B139,16)&lt;6,C139*0.1875/(2^MOD(B139,16)),"aa")</f>
+        <v>6.990234375</v>
+      </c>
+      <c r="E139" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>69</v>
+      </c>
+      <c r="C140">
+        <v>942</v>
+      </c>
+      <c r="D140">
+        <f>IF(MOD(B140,16)&lt;6,C140*0.1875/(2^MOD(B140,16)),"aa")</f>
+        <v>5.51953125</v>
+      </c>
+      <c r="E140" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>69</v>
+      </c>
+      <c r="C141">
+        <v>746</v>
+      </c>
+      <c r="D141">
+        <f>IF(MOD(B141,16)&lt;6,C141*0.1875/(2^MOD(B141,16)),"aa")</f>
+        <v>4.37109375</v>
+      </c>
+      <c r="E141" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>69</v>
+      </c>
+      <c r="C142">
+        <v>594</v>
+      </c>
+      <c r="D142">
+        <f>IF(MOD(B142,16)&lt;6,C142*0.1875/(2^MOD(B142,16)),"aa")</f>
+        <v>3.48046875</v>
+      </c>
+      <c r="E142" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>69</v>
+      </c>
+      <c r="C143">
+        <v>459</v>
+      </c>
+      <c r="D143">
+        <f>IF(MOD(B143,16)&lt;6,C143*0.1875/(2^MOD(B143,16)),"aa")</f>
+        <v>2.689453125</v>
+      </c>
+      <c r="E143" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>69</v>
+      </c>
+      <c r="C144">
+        <v>350</v>
+      </c>
+      <c r="D144">
+        <f>IF(MOD(B144,16)&lt;6,C144*0.1875/(2^MOD(B144,16)),"aa")</f>
+        <v>2.05078125</v>
+      </c>
+      <c r="E144" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>69</v>
+      </c>
+      <c r="C145">
+        <v>269</v>
+      </c>
+      <c r="D145">
+        <f>IF(MOD(B145,16)&lt;6,C145*0.1875/(2^MOD(B145,16)),"aa")</f>
+        <v>1.576171875</v>
+      </c>
+      <c r="E145" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>69</v>
+      </c>
+      <c r="C146">
+        <v>226</v>
+      </c>
+      <c r="D146">
+        <f>IF(MOD(B146,16)&lt;6,C146*0.1875/(2^MOD(B146,16)),"aa")</f>
+        <v>1.32421875</v>
+      </c>
+      <c r="E146" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>69</v>
+      </c>
+      <c r="C147">
+        <v>195</v>
+      </c>
+      <c r="D147">
+        <f>IF(MOD(B147,16)&lt;6,C147*0.1875/(2^MOD(B147,16)),"aa")</f>
+        <v>1.142578125</v>
+      </c>
+      <c r="E147" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>69</v>
+      </c>
+      <c r="C148">
+        <v>129</v>
+      </c>
+      <c r="D148">
+        <f>IF(MOD(B148,16)&lt;6,C148*0.1875/(2^MOD(B148,16)),"aa")</f>
+        <v>0.755859375</v>
+      </c>
+      <c r="E148" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>69</v>
+      </c>
+      <c r="C149">
+        <v>-14</v>
+      </c>
+      <c r="D149">
+        <f>IF(MOD(B149,16)&lt;6,C149*0.1875/(2^MOD(B149,16)),"aa")</f>
+        <v>-8.203125E-2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>69</v>
+      </c>
+      <c r="C150">
+        <v>82</v>
+      </c>
+      <c r="D150">
+        <f>IF(MOD(B150,16)&lt;6,C150*0.1875/(2^MOD(B150,16)),"aa")</f>
+        <v>0.48046875</v>
+      </c>
+      <c r="E150" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>69</v>
+      </c>
+      <c r="C151">
+        <v>151</v>
+      </c>
+      <c r="D151">
+        <f>IF(MOD(B151,16)&lt;6,C151*0.1875/(2^MOD(B151,16)),"aa")</f>
+        <v>0.884765625</v>
+      </c>
+      <c r="E151" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>69</v>
+      </c>
+      <c r="C152">
+        <v>106</v>
+      </c>
+      <c r="D152">
+        <f>IF(MOD(B152,16)&lt;6,C152*0.1875/(2^MOD(B152,16)),"aa")</f>
+        <v>0.62109375</v>
+      </c>
+      <c r="E152" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>69</v>
+      </c>
+      <c r="C153">
+        <v>30</v>
+      </c>
+      <c r="D153">
+        <f>IF(MOD(B153,16)&lt;6,C153*0.1875/(2^MOD(B153,16)),"aa")</f>
+        <v>0.17578125</v>
+      </c>
+      <c r="E153" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>69</v>
+      </c>
+      <c r="C154">
+        <v>54</v>
+      </c>
+      <c r="D154">
+        <f>IF(MOD(B154,16)&lt;6,C154*0.1875/(2^MOD(B154,16)),"aa")</f>
+        <v>0.31640625</v>
+      </c>
+      <c r="E154" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>69</v>
+      </c>
+      <c r="C155">
+        <v>58</v>
+      </c>
+      <c r="D155">
+        <f>IF(MOD(B155,16)&lt;6,C155*0.1875/(2^MOD(B155,16)),"aa")</f>
+        <v>0.33984375</v>
+      </c>
+      <c r="E155" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>69</v>
+      </c>
+      <c r="C156">
+        <v>114</v>
+      </c>
+      <c r="D156">
+        <f>IF(MOD(B156,16)&lt;6,C156*0.1875/(2^MOD(B156,16)),"aa")</f>
+        <v>0.66796875</v>
+      </c>
+      <c r="E156" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>69</v>
+      </c>
+      <c r="C157">
+        <v>-14</v>
+      </c>
+      <c r="D157">
+        <f>IF(MOD(B157,16)&lt;6,C157*0.1875/(2^MOD(B157,16)),"aa")</f>
+        <v>-8.203125E-2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>69</v>
+      </c>
+      <c r="C158">
+        <v>113</v>
+      </c>
+      <c r="D158">
+        <f>IF(MOD(B158,16)&lt;6,C158*0.1875/(2^MOD(B158,16)),"aa")</f>
+        <v>0.662109375</v>
+      </c>
+      <c r="E158" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>69</v>
+      </c>
+      <c r="C159">
+        <v>26</v>
+      </c>
+      <c r="D159">
+        <f>IF(MOD(B159,16)&lt;6,C159*0.1875/(2^MOD(B159,16)),"aa")</f>
+        <v>0.15234375</v>
+      </c>
+      <c r="E159" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>69</v>
+      </c>
+      <c r="C160">
+        <v>49</v>
+      </c>
+      <c r="D160">
+        <f>IF(MOD(B160,16)&lt;6,C160*0.1875/(2^MOD(B160,16)),"aa")</f>
+        <v>0.287109375</v>
+      </c>
+      <c r="E160" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>69</v>
+      </c>
+      <c r="C161">
+        <v>67</v>
+      </c>
+      <c r="D161">
+        <f>IF(MOD(B161,16)&lt;6,C161*0.1875/(2^MOD(B161,16)),"aa")</f>
+        <v>0.392578125</v>
+      </c>
+      <c r="E161" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>69</v>
+      </c>
+      <c r="C162">
+        <v>118</v>
+      </c>
+      <c r="D162">
+        <f>IF(MOD(B162,16)&lt;6,C162*0.1875/(2^MOD(B162,16)),"aa")</f>
+        <v>0.69140625</v>
+      </c>
+      <c r="E162" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>69</v>
+      </c>
+      <c r="C163">
+        <v>27</v>
+      </c>
+      <c r="D163">
+        <f>IF(MOD(B163,16)&lt;6,C163*0.1875/(2^MOD(B163,16)),"aa")</f>
+        <v>0.158203125</v>
+      </c>
+      <c r="E163" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>69</v>
+      </c>
+      <c r="C164">
+        <v>49</v>
+      </c>
+      <c r="D164">
+        <f>IF(MOD(B164,16)&lt;6,C164*0.1875/(2^MOD(B164,16)),"aa")</f>
+        <v>0.287109375</v>
+      </c>
+      <c r="E164" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>69</v>
+      </c>
+      <c r="C165">
+        <v>68</v>
+      </c>
+      <c r="D165">
+        <f>IF(MOD(B165,16)&lt;6,C165*0.1875/(2^MOD(B165,16)),"aa")</f>
+        <v>0.3984375</v>
+      </c>
+      <c r="E165" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>69</v>
+      </c>
+      <c r="C166">
+        <v>114</v>
+      </c>
+      <c r="D166">
+        <f>IF(MOD(B166,16)&lt;6,C166*0.1875/(2^MOD(B166,16)),"aa")</f>
+        <v>0.66796875</v>
+      </c>
+      <c r="E166" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>69</v>
+      </c>
+      <c r="C167">
+        <v>-13</v>
+      </c>
+      <c r="D167">
+        <f>IF(MOD(B167,16)&lt;6,C167*0.1875/(2^MOD(B167,16)),"aa")</f>
+        <v>-7.6171875E-2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>69</v>
+      </c>
+      <c r="C168">
+        <v>106</v>
+      </c>
+      <c r="D168">
+        <f>IF(MOD(B168,16)&lt;6,C168*0.1875/(2^MOD(B168,16)),"aa")</f>
+        <v>0.62109375</v>
+      </c>
+      <c r="E168" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>69</v>
+      </c>
+      <c r="C169">
+        <v>-15</v>
+      </c>
+      <c r="D169">
+        <f>IF(MOD(B169,16)&lt;6,C169*0.1875/(2^MOD(B169,16)),"aa")</f>
+        <v>-8.7890625E-2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>69</v>
+      </c>
+      <c r="C170">
+        <v>115</v>
+      </c>
+      <c r="D170">
+        <f>IF(MOD(B170,16)&lt;6,C170*0.1875/(2^MOD(B170,16)),"aa")</f>
+        <v>0.673828125</v>
+      </c>
+      <c r="E170" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>69</v>
+      </c>
+      <c r="C171">
+        <v>24</v>
+      </c>
+      <c r="D171">
+        <f>IF(MOD(B171,16)&lt;6,C171*0.1875/(2^MOD(B171,16)),"aa")</f>
+        <v>0.140625</v>
+      </c>
+      <c r="E171" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>69</v>
+      </c>
+      <c r="C172">
+        <v>45</v>
+      </c>
+      <c r="D172">
+        <f>IF(MOD(B172,16)&lt;6,C172*0.1875/(2^MOD(B172,16)),"aa")</f>
+        <v>0.263671875</v>
+      </c>
+      <c r="E172" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>69</v>
+      </c>
+      <c r="C173">
+        <v>106</v>
+      </c>
+      <c r="D173">
+        <f>IF(MOD(B173,16)&lt;6,C173*0.1875/(2^MOD(B173,16)),"aa")</f>
+        <v>0.62109375</v>
+      </c>
+      <c r="E173" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>69</v>
+      </c>
+      <c r="C174">
+        <v>30</v>
+      </c>
+      <c r="D174">
+        <f>IF(MOD(B174,16)&lt;6,C174*0.1875/(2^MOD(B174,16)),"aa")</f>
+        <v>0.17578125</v>
+      </c>
+      <c r="E174" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>69</v>
+      </c>
+      <c r="C175">
+        <v>54</v>
+      </c>
+      <c r="D175">
+        <f>IF(MOD(B175,16)&lt;6,C175*0.1875/(2^MOD(B175,16)),"aa")</f>
+        <v>0.31640625</v>
+      </c>
+      <c r="E175" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>69</v>
+      </c>
+      <c r="C176">
+        <v>52</v>
+      </c>
+      <c r="D176">
+        <f>IF(MOD(B176,16)&lt;6,C176*0.1875/(2^MOD(B176,16)),"aa")</f>
+        <v>0.3046875</v>
+      </c>
+      <c r="E176" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>69</v>
+      </c>
+      <c r="C177">
+        <v>115</v>
+      </c>
+      <c r="D177">
+        <f>IF(MOD(B177,16)&lt;6,C177*0.1875/(2^MOD(B177,16)),"aa")</f>
+        <v>0.673828125</v>
+      </c>
+      <c r="E177" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>69</v>
+      </c>
+      <c r="C178">
+        <v>-14</v>
+      </c>
+      <c r="D178">
+        <f>IF(MOD(B178,16)&lt;6,C178*0.1875/(2^MOD(B178,16)),"aa")</f>
+        <v>-8.203125E-2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>69</v>
+      </c>
+      <c r="C179">
+        <v>114</v>
+      </c>
+      <c r="D179">
+        <f>IF(MOD(B179,16)&lt;6,C179*0.1875/(2^MOD(B179,16)),"aa")</f>
+        <v>0.66796875</v>
+      </c>
+      <c r="E179" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>69</v>
+      </c>
+      <c r="C180">
+        <v>25</v>
+      </c>
+      <c r="D180">
+        <f t="shared" ref="D180:D243" si="6">IF(MOD(B180,16)&lt;6,C180*0.1875/(2^MOD(B180,16)),"aa")</f>
+        <v>0.146484375</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>69</v>
+      </c>
+      <c r="C181">
+        <v>48</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="6"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>69</v>
+      </c>
+      <c r="C182">
+        <v>68</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="6"/>
+        <v>0.3984375</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>69</v>
+      </c>
+      <c r="C183">
+        <v>115</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="6"/>
+        <v>0.673828125</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>69</v>
+      </c>
+      <c r="C184">
+        <v>-13</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="6"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>69</v>
+      </c>
+      <c r="C185">
+        <v>110</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="6"/>
+        <v>0.64453125</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>69</v>
+      </c>
+      <c r="C186">
+        <v>29</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="6"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>69</v>
+      </c>
+      <c r="C187">
+        <v>53</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="6"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>69</v>
+      </c>
+      <c r="C188">
+        <v>57</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="6"/>
+        <v>0.333984375</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>69</v>
+      </c>
+      <c r="C189">
+        <v>115</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="6"/>
+        <v>0.673828125</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>69</v>
+      </c>
+      <c r="C190">
+        <v>-14</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="6"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>69</v>
+      </c>
+      <c r="C191">
+        <v>111</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="6"/>
+        <v>0.650390625</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>69</v>
+      </c>
+      <c r="C192">
+        <v>29</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="6"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>69</v>
+      </c>
+      <c r="C193">
+        <v>52</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="6"/>
+        <v>0.3046875</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>69</v>
+      </c>
+      <c r="C194">
+        <v>60</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="6"/>
+        <v>0.3515625</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>69</v>
+      </c>
+      <c r="C195">
+        <v>85</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="6"/>
+        <v>0.498046875</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>69</v>
+      </c>
+      <c r="C196">
+        <v>148</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="6"/>
+        <v>0.8671875</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>69</v>
+      </c>
+      <c r="C197">
+        <v>84</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="6"/>
+        <v>0.4921875</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>69</v>
+      </c>
+      <c r="C198">
+        <v>114</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="6"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>69</v>
+      </c>
+      <c r="C199">
+        <v>-13</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="6"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>69</v>
+      </c>
+      <c r="C200">
+        <v>108</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="6"/>
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>69</v>
+      </c>
+      <c r="C201">
+        <v>30</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="6"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>69</v>
+      </c>
+      <c r="C202">
+        <v>54</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="6"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>69</v>
+      </c>
+      <c r="C203">
+        <v>50</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="6"/>
+        <v>0.29296875</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>69</v>
+      </c>
+      <c r="C204">
+        <v>82</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="6"/>
+        <v>0.48046875</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>69</v>
+      </c>
+      <c r="C205">
+        <v>114</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="6"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>69</v>
+      </c>
+      <c r="C206">
+        <v>-13</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="6"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>69</v>
+      </c>
+      <c r="C207">
+        <v>111</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="6"/>
+        <v>0.650390625</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>69</v>
+      </c>
+      <c r="C208">
+        <v>30</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="6"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>69</v>
+      </c>
+      <c r="C209">
+        <v>54</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="6"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>69</v>
+      </c>
+      <c r="C210">
+        <v>51</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="6"/>
+        <v>0.298828125</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>69</v>
+      </c>
+      <c r="C211">
+        <v>117</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="6"/>
+        <v>0.685546875</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>69</v>
+      </c>
+      <c r="C212">
+        <v>29</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="6"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>69</v>
+      </c>
+      <c r="C213">
+        <v>53</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="6"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>69</v>
+      </c>
+      <c r="C214">
+        <v>54</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="6"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>69</v>
+      </c>
+      <c r="C215">
+        <v>116</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="6"/>
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>69</v>
+      </c>
+      <c r="C216">
+        <v>-14</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="6"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>69</v>
+      </c>
+      <c r="C217">
+        <v>80</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>69</v>
+      </c>
+      <c r="C218">
+        <v>152</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="6"/>
+        <v>0.890625</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>69</v>
+      </c>
+      <c r="C219">
+        <v>106</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="6"/>
+        <v>0.62109375</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>69</v>
+      </c>
+      <c r="C220">
+        <v>-14</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="6"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>69</v>
+      </c>
+      <c r="C221">
+        <v>110</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="6"/>
+        <v>0.64453125</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>69</v>
+      </c>
+      <c r="C222">
+        <v>29</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="6"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>69</v>
+      </c>
+      <c r="C223">
+        <v>52</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="6"/>
+        <v>0.3046875</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>69</v>
+      </c>
+      <c r="C224">
+        <v>62</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="6"/>
+        <v>0.36328125</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>69</v>
+      </c>
+      <c r="C225">
+        <v>84</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="6"/>
+        <v>0.4921875</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>69</v>
+      </c>
+      <c r="C226">
+        <v>114</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="6"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>69</v>
+      </c>
+      <c r="C227">
+        <v>-13</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="6"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>69</v>
+      </c>
+      <c r="C228">
+        <v>69</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="6"/>
+        <v>0.404296875</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>69</v>
+      </c>
+      <c r="C229">
+        <v>151</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="6"/>
+        <v>0.884765625</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>69</v>
+      </c>
+      <c r="C230">
+        <v>104</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="6"/>
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>69</v>
+      </c>
+      <c r="C231">
+        <v>30</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="6"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>69</v>
+      </c>
+      <c r="C232">
+        <v>53</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="6"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>69</v>
+      </c>
+      <c r="C233">
+        <v>58</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="6"/>
+        <v>0.33984375</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>69</v>
+      </c>
+      <c r="C234">
+        <v>116</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="6"/>
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>69</v>
+      </c>
+      <c r="C235">
+        <v>-14</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="6"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>69</v>
+      </c>
+      <c r="C236">
+        <v>109</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="6"/>
+        <v>0.638671875</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>69</v>
+      </c>
+      <c r="C237">
+        <v>30</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="6"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>69</v>
+      </c>
+      <c r="C238">
+        <v>53</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="6"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>69</v>
+      </c>
+      <c r="C239">
+        <v>54</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="6"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>69</v>
+      </c>
+      <c r="C240">
+        <v>114</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="6"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>69</v>
+      </c>
+      <c r="C241">
+        <v>-13</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="6"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>69</v>
+      </c>
+      <c r="C242">
+        <v>112</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="6"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>69</v>
+      </c>
+      <c r="C243">
+        <v>27</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="6"/>
+        <v>0.158203125</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>69</v>
+      </c>
+      <c r="C244">
+        <v>45</v>
+      </c>
+      <c r="D244">
+        <f t="shared" ref="D244:D307" si="7">IF(MOD(B244,16)&lt;6,C244*0.1875/(2^MOD(B244,16)),"aa")</f>
+        <v>0.263671875</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>69</v>
+      </c>
+      <c r="C245">
+        <v>104</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="7"/>
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>69</v>
+      </c>
+      <c r="C246">
+        <v>-15</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="7"/>
+        <v>-8.7890625E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>69</v>
+      </c>
+      <c r="C247">
+        <v>-32768</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>69</v>
+      </c>
+      <c r="C248">
+        <v>-32768</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>69</v>
+      </c>
+      <c r="C249">
+        <v>-32768</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>69</v>
+      </c>
+      <c r="C250">
+        <v>-32768</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>69</v>
+      </c>
+      <c r="C251">
+        <v>-32768</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>69</v>
+      </c>
+      <c r="C252">
+        <v>-32768</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>69</v>
+      </c>
+      <c r="C253">
+        <v>-32768</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>69</v>
+      </c>
+      <c r="C254">
+        <v>-32768</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>69</v>
+      </c>
+      <c r="C255">
+        <v>-32768</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>69</v>
+      </c>
+      <c r="C256">
+        <v>-32768</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>69</v>
+      </c>
+      <c r="C257">
+        <v>-32768</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>69</v>
+      </c>
+      <c r="C258">
+        <v>-32768</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>69</v>
+      </c>
+      <c r="C259">
+        <v>-32768</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>69</v>
+      </c>
+      <c r="C260">
+        <v>-32768</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>69</v>
+      </c>
+      <c r="C261">
+        <v>-32768</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>69</v>
+      </c>
+      <c r="C262">
+        <v>-32768</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>69</v>
+      </c>
+      <c r="C263">
+        <v>-32768</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>69</v>
+      </c>
+      <c r="C264">
+        <v>-32768</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="7"/>
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>69</v>
+      </c>
+      <c r="C265">
+        <v>-13937</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="7"/>
+        <v>-81.662109375</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>69</v>
+      </c>
+      <c r="C266">
+        <v>-9544</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="7"/>
+        <v>-55.921875</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>69</v>
+      </c>
+      <c r="C267">
+        <v>-6735</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="7"/>
+        <v>-39.462890625</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>69</v>
+      </c>
+      <c r="C268">
+        <v>-4702</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="7"/>
+        <v>-27.55078125</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>69</v>
+      </c>
+      <c r="C269">
+        <v>-3178</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="7"/>
+        <v>-18.62109375</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>69</v>
+      </c>
+      <c r="C270">
+        <v>-2015</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="7"/>
+        <v>-11.806640625</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>69</v>
+      </c>
+      <c r="C271">
+        <v>-1116</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="7"/>
+        <v>-6.5390625</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>69</v>
+      </c>
+      <c r="C272">
+        <v>-420</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="7"/>
+        <v>-2.4609375</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>69</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="7"/>
+        <v>2.34375E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>69</v>
+      </c>
+      <c r="C274">
+        <v>54</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="7"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>69</v>
+      </c>
+      <c r="C275">
+        <v>52</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="7"/>
+        <v>0.3046875</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>69</v>
+      </c>
+      <c r="C276">
+        <v>53</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="7"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>69</v>
+      </c>
+      <c r="C277">
+        <v>83</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="7"/>
+        <v>0.486328125</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>69</v>
+      </c>
+      <c r="C278">
+        <v>119</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="7"/>
+        <v>0.697265625</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>69</v>
+      </c>
+      <c r="C279">
+        <v>29</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="7"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>69</v>
+      </c>
+      <c r="C280">
+        <v>43</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="7"/>
+        <v>0.251953125</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>69</v>
+      </c>
+      <c r="C281">
+        <v>105</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="7"/>
+        <v>0.615234375</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>69</v>
+      </c>
+      <c r="C282">
+        <v>-14</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="7"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>69</v>
+      </c>
+      <c r="C283">
+        <v>106</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="7"/>
+        <v>0.62109375</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>69</v>
+      </c>
+      <c r="C284">
+        <v>-13</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="7"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>69</v>
+      </c>
+      <c r="C285">
+        <v>105</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="7"/>
+        <v>0.615234375</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>69</v>
+      </c>
+      <c r="C286">
+        <v>-14</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="7"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>69</v>
+      </c>
+      <c r="C287">
+        <v>108</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="7"/>
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>69</v>
+      </c>
+      <c r="C288">
+        <v>-14</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="7"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>69</v>
+      </c>
+      <c r="C289">
+        <v>108</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="7"/>
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>69</v>
+      </c>
+      <c r="C290">
+        <v>-14</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="7"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>69</v>
+      </c>
+      <c r="C291">
+        <v>107</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="7"/>
+        <v>0.626953125</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>69</v>
+      </c>
+      <c r="C292">
+        <v>-14</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="7"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>69</v>
+      </c>
+      <c r="C293">
+        <v>109</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="7"/>
+        <v>0.638671875</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>69</v>
+      </c>
+      <c r="C294">
+        <v>30</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="7"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>69</v>
+      </c>
+      <c r="C295">
+        <v>53</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="7"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>69</v>
+      </c>
+      <c r="C296">
+        <v>56</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="7"/>
+        <v>0.328125</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>69</v>
+      </c>
+      <c r="C297">
+        <v>116</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="7"/>
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>69</v>
+      </c>
+      <c r="C298">
+        <v>-14</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="7"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>69</v>
+      </c>
+      <c r="C299">
+        <v>107</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="7"/>
+        <v>0.626953125</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>69</v>
+      </c>
+      <c r="C300">
+        <v>-14</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="7"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>69</v>
+      </c>
+      <c r="C301">
+        <v>110</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="7"/>
+        <v>0.64453125</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>69</v>
+      </c>
+      <c r="C302">
+        <v>30</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="7"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>69</v>
+      </c>
+      <c r="C303">
+        <v>54</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="7"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>69</v>
+      </c>
+      <c r="C304">
+        <v>51</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="7"/>
+        <v>0.298828125</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>69</v>
+      </c>
+      <c r="C305">
+        <v>85</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="7"/>
+        <v>0.498046875</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>69</v>
+      </c>
+      <c r="C306">
+        <v>114</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="7"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>69</v>
+      </c>
+      <c r="C307">
+        <v>-13</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="7"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>69</v>
+      </c>
+      <c r="C308">
+        <v>109</v>
+      </c>
+      <c r="D308">
+        <f t="shared" ref="D308:D371" si="8">IF(MOD(B308,16)&lt;6,C308*0.1875/(2^MOD(B308,16)),"aa")</f>
+        <v>0.638671875</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>69</v>
+      </c>
+      <c r="C309">
+        <v>30</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="8"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>69</v>
+      </c>
+      <c r="C310">
+        <v>54</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="8"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>69</v>
+      </c>
+      <c r="C311">
+        <v>51</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="8"/>
+        <v>0.298828125</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>69</v>
+      </c>
+      <c r="C312">
+        <v>120</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="8"/>
+        <v>0.703125</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>69</v>
+      </c>
+      <c r="C313">
+        <v>46</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="8"/>
+        <v>0.26953125</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>69</v>
+      </c>
+      <c r="C314">
+        <v>104</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="8"/>
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <v>69</v>
+      </c>
+      <c r="C315">
+        <v>27</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="8"/>
+        <v>0.158203125</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>69</v>
+      </c>
+      <c r="C316">
+        <v>45</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="8"/>
+        <v>0.263671875</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>69</v>
+      </c>
+      <c r="C317">
+        <v>105</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="8"/>
+        <v>0.615234375</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>69</v>
+      </c>
+      <c r="C318">
+        <v>29</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="8"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>69</v>
+      </c>
+      <c r="C319">
+        <v>52</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="8"/>
+        <v>0.3046875</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>69</v>
+      </c>
+      <c r="C320">
+        <v>59</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="8"/>
+        <v>0.345703125</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <v>69</v>
+      </c>
+      <c r="C321">
+        <v>116</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="8"/>
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>69</v>
+      </c>
+      <c r="C322">
+        <v>-14</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="8"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>69</v>
+      </c>
+      <c r="C323">
+        <v>111</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="8"/>
+        <v>0.650390625</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>69</v>
+      </c>
+      <c r="C324">
+        <v>30</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="8"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>69</v>
+      </c>
+      <c r="C325">
+        <v>54</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="8"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>69</v>
+      </c>
+      <c r="C326">
+        <v>50</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="8"/>
+        <v>0.29296875</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>69</v>
+      </c>
+      <c r="C327">
+        <v>83</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="8"/>
+        <v>0.486328125</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>69</v>
+      </c>
+      <c r="C328">
+        <v>114</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="8"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>69</v>
+      </c>
+      <c r="C329">
+        <v>-13</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="8"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>69</v>
+      </c>
+      <c r="C330">
+        <v>106</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="8"/>
+        <v>0.62109375</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>69</v>
+      </c>
+      <c r="C331">
+        <v>-14</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="8"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>69</v>
+      </c>
+      <c r="C332">
+        <v>116</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="8"/>
+        <v>0.6796875</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>69</v>
+      </c>
+      <c r="C333">
+        <v>49</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="8"/>
+        <v>0.287109375</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>69</v>
+      </c>
+      <c r="C334">
+        <v>68</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="8"/>
+        <v>0.3984375</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>69</v>
+      </c>
+      <c r="C335">
+        <v>109</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="8"/>
+        <v>0.638671875</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>69</v>
+      </c>
+      <c r="C336">
+        <v>30</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="8"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>69</v>
+      </c>
+      <c r="C337">
+        <v>53</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="8"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>69</v>
+      </c>
+      <c r="C338">
+        <v>56</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="8"/>
+        <v>0.328125</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>69</v>
+      </c>
+      <c r="C339">
+        <v>114</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="8"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>69</v>
+      </c>
+      <c r="C340">
+        <v>-13</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="8"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>69</v>
+      </c>
+      <c r="C341">
+        <v>109</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="8"/>
+        <v>0.638671875</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>69</v>
+      </c>
+      <c r="C342">
+        <v>30</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="8"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>69</v>
+      </c>
+      <c r="C343">
+        <v>53</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="8"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>69</v>
+      </c>
+      <c r="C344">
+        <v>53</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="8"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>69</v>
+      </c>
+      <c r="C345">
+        <v>115</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="8"/>
+        <v>0.673828125</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>69</v>
+      </c>
+      <c r="C346">
+        <v>-13</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="8"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>69</v>
+      </c>
+      <c r="C347">
+        <v>107</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="8"/>
+        <v>0.626953125</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>69</v>
+      </c>
+      <c r="C348">
+        <v>-14</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="8"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>69</v>
+      </c>
+      <c r="C349">
+        <v>112</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="8"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>69</v>
+      </c>
+      <c r="C350">
+        <v>29</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="8"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>69</v>
+      </c>
+      <c r="C351">
+        <v>49</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="8"/>
+        <v>0.287109375</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <v>69</v>
+      </c>
+      <c r="C352">
+        <v>68</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="8"/>
+        <v>0.3984375</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353">
+        <v>69</v>
+      </c>
+      <c r="C353">
+        <v>111</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="8"/>
+        <v>0.650390625</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>69</v>
+      </c>
+      <c r="C354">
+        <v>29</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="8"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>69</v>
+      </c>
+      <c r="C355">
+        <v>49</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="8"/>
+        <v>0.287109375</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>69</v>
+      </c>
+      <c r="C356">
+        <v>67</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="8"/>
+        <v>0.392578125</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B357">
+        <v>69</v>
+      </c>
+      <c r="C357">
+        <v>80</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="8"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B358">
+        <v>69</v>
+      </c>
+      <c r="C358">
+        <v>114</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="8"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B359">
+        <v>69</v>
+      </c>
+      <c r="C359">
+        <v>-13</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="8"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>69</v>
+      </c>
+      <c r="C360">
+        <v>105</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="8"/>
+        <v>0.615234375</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>69</v>
+      </c>
+      <c r="C361">
+        <v>-14</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="8"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>69</v>
+      </c>
+      <c r="C362">
+        <v>109</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="8"/>
+        <v>0.638671875</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <v>69</v>
+      </c>
+      <c r="C363">
+        <v>30</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="8"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B364">
+        <v>69</v>
+      </c>
+      <c r="C364">
+        <v>53</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="8"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>69</v>
+      </c>
+      <c r="C365">
+        <v>54</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="8"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B366">
+        <v>69</v>
+      </c>
+      <c r="C366">
+        <v>115</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="8"/>
+        <v>0.673828125</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B367">
+        <v>69</v>
+      </c>
+      <c r="C367">
+        <v>-13</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="8"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B368">
+        <v>69</v>
+      </c>
+      <c r="C368">
+        <v>108</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="8"/>
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B369">
+        <v>69</v>
+      </c>
+      <c r="C369">
+        <v>30</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="8"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B370">
+        <v>69</v>
+      </c>
+      <c r="C370">
+        <v>54</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="8"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B371">
+        <v>69</v>
+      </c>
+      <c r="C371">
+        <v>54</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="8"/>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B372">
+        <v>69</v>
+      </c>
+      <c r="C372">
+        <v>49</v>
+      </c>
+      <c r="D372">
+        <f t="shared" ref="D372:D392" si="9">IF(MOD(B372,16)&lt;6,C372*0.1875/(2^MOD(B372,16)),"aa")</f>
+        <v>0.287109375</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B373">
+        <v>69</v>
+      </c>
+      <c r="C373">
+        <v>112</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="9"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B374">
+        <v>69</v>
+      </c>
+      <c r="C374">
+        <v>28</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="9"/>
+        <v>0.1640625</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B375">
+        <v>69</v>
+      </c>
+      <c r="C375">
+        <v>47</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="9"/>
+        <v>0.275390625</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B376">
+        <v>69</v>
+      </c>
+      <c r="C376">
+        <v>68</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="9"/>
+        <v>0.3984375</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B377">
+        <v>69</v>
+      </c>
+      <c r="C377">
+        <v>114</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="9"/>
+        <v>0.66796875</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B378">
+        <v>69</v>
+      </c>
+      <c r="C378">
+        <v>-13</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="9"/>
+        <v>-7.6171875E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B379">
+        <v>69</v>
+      </c>
+      <c r="C379">
+        <v>108</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="9"/>
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B380">
+        <v>69</v>
+      </c>
+      <c r="C380">
+        <v>30</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="9"/>
+        <v>0.17578125</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B381">
+        <v>69</v>
+      </c>
+      <c r="C381">
+        <v>53</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="9"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B382">
+        <v>69</v>
+      </c>
+      <c r="C382">
+        <v>53</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="9"/>
+        <v>0.310546875</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B383">
+        <v>69</v>
+      </c>
+      <c r="C383">
+        <v>115</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="9"/>
+        <v>0.673828125</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B384">
+        <v>69</v>
+      </c>
+      <c r="C384">
+        <v>-14</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="9"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B385">
+        <v>69</v>
+      </c>
+      <c r="C385">
+        <v>108</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="9"/>
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B386">
+        <v>69</v>
+      </c>
+      <c r="C386">
+        <v>-14</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="9"/>
+        <v>-8.203125E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B387">
+        <v>69</v>
+      </c>
+      <c r="C387">
+        <v>111</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="9"/>
+        <v>0.650390625</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B388">
+        <v>69</v>
+      </c>
+      <c r="C388">
+        <v>29</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="9"/>
+        <v>0.169921875</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B389">
+        <v>69</v>
+      </c>
+      <c r="C389">
+        <v>51</v>
+      </c>
+      <c r="D389">
+        <f t="shared" si="9"/>
+        <v>0.298828125</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B390">
+        <v>69</v>
+      </c>
+      <c r="C390">
+        <v>65</v>
+      </c>
+      <c r="D390">
+        <f t="shared" si="9"/>
+        <v>0.380859375</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B391">
+        <v>69</v>
+      </c>
+      <c r="C391">
+        <v>112</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="9"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B392">
+        <v>69</v>
+      </c>
+      <c r="C392">
+        <v>28</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="9"/>
+        <v>0.1640625</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6118,16 +10127,16 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="151" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D3" s="152" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E3" s="153" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6240,10 +10249,10 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="75" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -6256,27 +10265,28 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U21"/>
+  <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" customWidth="1"/>
     <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="57" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="147" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C3" s="147"/>
       <c r="D3" s="147"/>
@@ -6290,7 +10300,7 @@
       <c r="L3" s="147"/>
       <c r="M3" s="150"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P4" s="19" t="s">
         <v>105</v>
       </c>
@@ -6301,7 +10311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P5" s="22">
         <v>4</v>
       </c>
@@ -6312,9 +10322,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="75" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P6" s="112">
         <v>5</v>
@@ -6323,15 +10333,15 @@
         <v>283</v>
       </c>
       <c r="R6" s="114" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="P7" s="22">
         <v>6</v>
@@ -6340,15 +10350,15 @@
         <v>283</v>
       </c>
       <c r="R7" s="146" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P8" s="24" t="s">
         <v>102</v>
@@ -6360,421 +10370,668 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C9" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="N9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="H10" t="s">
+        <v>593</v>
+      </c>
+      <c r="I10" t="s">
+        <v>594</v>
+      </c>
+      <c r="J10" t="s">
+        <v>595</v>
+      </c>
+      <c r="M10" t="s">
+        <v>593</v>
+      </c>
+      <c r="N10" t="s">
+        <v>594</v>
+      </c>
+      <c r="O10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="H11" t="s">
+        <v>596</v>
+      </c>
+      <c r="I11" t="s">
+        <v>603</v>
+      </c>
+      <c r="J11" t="s">
+        <v>607</v>
+      </c>
+      <c r="M11" t="str">
+        <f>BIN2HEX(RIGHT(H11,5),2)</f>
+        <v>18</v>
+      </c>
+      <c r="N11" t="str">
+        <f>BIN2HEX(RIGHT(I11,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="O11" t="str">
+        <f>BIN2HEX(RIGHT(J11,3),2)</f>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F12" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G12" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="H12" t="s">
+        <v>596</v>
+      </c>
+      <c r="I12" t="s">
+        <v>603</v>
+      </c>
+      <c r="J12" t="s">
+        <v>608</v>
+      </c>
+      <c r="M12" t="str">
+        <f>BIN2HEX(RIGHT(H12,5),2)</f>
+        <v>18</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ref="N12:N20" si="0">BIN2HEX(RIGHT(I12,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" ref="O12:O20" si="1">BIN2HEX(RIGHT(J12,3),2)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F13" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G13" t="s">
-        <v>595</v>
-      </c>
-      <c r="R13" t="s">
-        <v>553</v>
-      </c>
-      <c r="S13" t="s">
-        <v>558</v>
-      </c>
-      <c r="T13" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="H13" t="s">
+        <v>596</v>
+      </c>
+      <c r="I13" t="s">
+        <v>603</v>
+      </c>
+      <c r="J13" t="s">
+        <v>608</v>
+      </c>
+      <c r="M13" t="str">
+        <f>BIN2HEX(RIGHT(H13,5),2)</f>
+        <v>18</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D14">
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F14" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G14" t="s">
-        <v>595</v>
+        <v>592</v>
+      </c>
+      <c r="H14" t="s">
+        <v>597</v>
+      </c>
+      <c r="I14" t="s">
+        <v>603</v>
       </c>
       <c r="J14" t="s">
-        <v>545</v>
-      </c>
-      <c r="K14" t="s">
-        <v>546</v>
-      </c>
-      <c r="L14" t="s">
-        <v>547</v>
-      </c>
-      <c r="M14" t="s">
-        <v>561</v>
-      </c>
-      <c r="O14" t="s">
-        <v>549</v>
-      </c>
-      <c r="P14" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>565</v>
-      </c>
-      <c r="R14" t="s">
-        <v>552</v>
-      </c>
-      <c r="U14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="M14" t="str">
+        <f>BIN2HEX(RIGHT(H14,5),2)</f>
+        <v>19</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D15">
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F15" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G15" t="s">
-        <v>594</v>
+        <v>591</v>
+      </c>
+      <c r="H15" t="s">
+        <v>598</v>
       </c>
       <c r="I15" t="s">
-        <v>544</v>
-      </c>
-      <c r="J15">
-        <v>240</v>
-      </c>
-      <c r="K15" t="s">
-        <v>548</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>50</v>
-      </c>
-      <c r="P15" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="149">
-        <v>0.2</v>
-      </c>
-      <c r="U15" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="J15" t="s">
+        <v>608</v>
+      </c>
+      <c r="M15" t="str">
+        <f>BIN2HEX(RIGHT(H15,5),2)</f>
+        <v>15</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G16" t="s">
-        <v>595</v>
+        <v>592</v>
+      </c>
+      <c r="H16" t="s">
+        <v>599</v>
       </c>
       <c r="I16" t="s">
-        <v>556</v>
-      </c>
-      <c r="J16">
-        <v>24</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>10</v>
-      </c>
-      <c r="P16" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="148">
-        <v>0.2</v>
-      </c>
-      <c r="S16" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="J16" t="s">
+        <v>608</v>
+      </c>
+      <c r="M16" t="str">
+        <f>BIN2HEX(RIGHT(H16,5),2)</f>
+        <v>14</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D17">
         <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F17" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G17" t="s">
-        <v>595</v>
+        <v>592</v>
+      </c>
+      <c r="H17" t="s">
+        <v>600</v>
       </c>
       <c r="I17" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="J17" t="s">
-        <v>562</v>
-      </c>
-      <c r="K17" t="s">
-        <v>563</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>300</v>
-      </c>
-      <c r="O17">
-        <v>10</v>
-      </c>
-      <c r="P17" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q17" s="149">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R17" s="149">
-        <v>0.2</v>
-      </c>
-      <c r="S17" s="59" t="s">
-        <v>566</v>
-      </c>
-      <c r="T17" s="59"/>
-      <c r="U17" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="M17" t="str">
+        <f>BIN2HEX(RIGHT(H17,5),2)</f>
+        <v>12</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
       <c r="E18" t="s">
+        <v>588</v>
+      </c>
+      <c r="F18" t="s">
+        <v>589</v>
+      </c>
+      <c r="G18" t="s">
         <v>592</v>
       </c>
-      <c r="F18" t="s">
-        <v>593</v>
-      </c>
-      <c r="G18" t="s">
-        <v>595</v>
+      <c r="H18" t="s">
+        <v>601</v>
       </c>
       <c r="I18" t="s">
-        <v>568</v>
-      </c>
-      <c r="J18">
-        <v>-34</v>
-      </c>
-      <c r="K18">
-        <v>33</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>33</v>
-      </c>
-      <c r="P18" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="148">
-        <v>0.67</v>
-      </c>
-      <c r="S18" t="s">
-        <v>566</v>
-      </c>
-      <c r="T18" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="J18" t="s">
+        <v>608</v>
+      </c>
+      <c r="M18" t="str">
+        <f>BIN2HEX(RIGHT(H18,5),2)</f>
+        <v>0C</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D19">
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F19" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G19" t="s">
-        <v>595</v>
+        <v>605</v>
+      </c>
+      <c r="H19" t="s">
+        <v>602</v>
       </c>
       <c r="I19" t="s">
-        <v>572</v>
-      </c>
-      <c r="J19">
-        <v>8.5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>573</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>10</v>
-      </c>
-      <c r="P19" s="59" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>574</v>
-      </c>
-      <c r="U19" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="J19" t="s">
+        <v>608</v>
+      </c>
+      <c r="M19" t="str">
+        <f>BIN2HEX(RIGHT(H19,5),2)</f>
+        <v>09</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D20">
         <v>33</v>
       </c>
       <c r="E20" t="s">
+        <v>560</v>
+      </c>
+      <c r="F20" t="s">
+        <v>589</v>
+      </c>
+      <c r="G20" t="s">
+        <v>592</v>
+      </c>
+      <c r="H20" t="s">
+        <v>602</v>
+      </c>
+      <c r="I20" t="s">
+        <v>603</v>
+      </c>
+      <c r="J20" t="s">
+        <v>608</v>
+      </c>
+      <c r="M20" t="str">
+        <f>BIN2HEX(RIGHT(H20,5),2)</f>
+        <v>09</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>549</v>
+      </c>
+      <c r="M27" t="s">
+        <v>554</v>
+      </c>
+      <c r="N27" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>541</v>
+      </c>
+      <c r="E28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F28" t="s">
+        <v>543</v>
+      </c>
+      <c r="G28" t="s">
+        <v>557</v>
+      </c>
+      <c r="I28" t="s">
+        <v>545</v>
+      </c>
+      <c r="J28" t="s">
+        <v>546</v>
+      </c>
+      <c r="K28" t="s">
+        <v>561</v>
+      </c>
+      <c r="L28" t="s">
+        <v>548</v>
+      </c>
+      <c r="O28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>540</v>
+      </c>
+      <c r="D29">
+        <v>240</v>
+      </c>
+      <c r="E29" t="s">
+        <v>544</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>547</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="149">
+        <v>0.2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>553</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="148">
+        <v>0.2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>556</v>
+      </c>
+      <c r="D31" t="s">
+        <v>558</v>
+      </c>
+      <c r="E31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>300</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
+        <v>560</v>
+      </c>
+      <c r="K31" s="149">
+        <v>0.12</v>
+      </c>
+      <c r="L31" s="149">
+        <v>0.5</v>
+      </c>
+      <c r="M31" s="59" t="s">
+        <v>562</v>
+      </c>
+      <c r="N31" s="59"/>
+      <c r="O31" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>564</v>
       </c>
-      <c r="F20" t="s">
-        <v>593</v>
-      </c>
-      <c r="G20" t="s">
-        <v>595</v>
-      </c>
-      <c r="I20" t="s">
-        <v>575</v>
-      </c>
-      <c r="J20">
+      <c r="D32">
+        <v>-34</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>565</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="148">
+        <v>0.67</v>
+      </c>
+      <c r="M32" t="s">
+        <v>562</v>
+      </c>
+      <c r="N32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>568</v>
+      </c>
+      <c r="D33">
+        <v>8.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>569</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>570</v>
+      </c>
+      <c r="O33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>571</v>
+      </c>
+      <c r="D34">
         <v>13</v>
       </c>
-      <c r="K20" t="s">
-        <v>573</v>
-      </c>
-      <c r="L20">
+      <c r="E34" t="s">
+        <v>569</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="M20">
+      <c r="G34">
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="I34">
         <v>10</v>
       </c>
-      <c r="P20" s="59" t="s">
-        <v>557</v>
-      </c>
-      <c r="R20" t="s">
-        <v>574</v>
-      </c>
-      <c r="U20" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>591</v>
+      <c r="J34" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="L34" t="s">
+        <v>570</v>
+      </c>
+      <c r="O34" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -6809,79 +11066,79 @@
     </row>
     <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="75" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>447</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="D7" s="75" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="E7" s="75" t="s">
         <v>449</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="F7" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="G7" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="H7" s="75" t="s">
         <v>452</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="I7" s="75" t="s">
         <v>453</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="J7" s="75" t="s">
         <v>454</v>
       </c>
-      <c r="I7" s="75" t="s">
+      <c r="K7" s="75" t="s">
         <v>455</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="L7" s="75" t="s">
         <v>456</v>
       </c>
-      <c r="K7" s="75" t="s">
+      <c r="M7" s="75" t="s">
         <v>457</v>
       </c>
-      <c r="L7" s="75" t="s">
+      <c r="N7" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="O7" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="P7" s="75" t="s">
         <v>460</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="Q7" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="R7" s="75" t="s">
         <v>462</v>
       </c>
-      <c r="Q7" s="75" t="s">
+      <c r="S7" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="R7" s="75" t="s">
+      <c r="T7" s="75" t="s">
         <v>464</v>
-      </c>
-      <c r="S7" s="75" t="s">
-        <v>465</v>
-      </c>
-      <c r="T7" s="75" t="s">
-        <v>466</v>
       </c>
       <c r="U7" s="75" t="s">
         <v>129</v>
@@ -7547,7 +11804,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B37" t="s">
         <v>320</v>
@@ -7555,7 +11812,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B38" t="s">
         <v>320</v>
@@ -7563,7 +11820,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B39" t="s">
         <v>320</v>
@@ -7571,7 +11828,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B40" t="s">
         <v>320</v>
@@ -7579,7 +11836,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B41" t="s">
         <v>320</v>
@@ -7587,7 +11844,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B42" t="s">
         <v>320</v>
@@ -7595,7 +11852,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B43" t="s">
         <v>320</v>
@@ -7603,7 +11860,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B44" t="s">
         <v>320</v>
@@ -7611,15 +11868,31 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="B45" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B46" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -7634,12 +11907,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -8560,8 +12833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8581,34 +12854,34 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" t="s">
         <v>477</v>
-      </c>
-      <c r="B3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8617,12 +12890,12 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B7">
         <v>1.5</v>
@@ -8631,12 +12904,12 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -8645,21 +12918,21 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9550,8 +13823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:J39"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9869,7 +14142,7 @@
         <v>283</v>
       </c>
       <c r="J37" s="74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
@@ -9880,7 +14153,7 @@
         <v>283</v>
       </c>
       <c r="J38" s="145" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10538,7 +14811,7 @@
         <v>395</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O7" s="91" t="s">
         <v>129</v>
@@ -10564,7 +14837,7 @@
         <v>391</v>
       </c>
       <c r="I8" s="100" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J8" s="140" t="s">
         <v>397</v>
@@ -10581,7 +14854,7 @@
         <v>129</v>
       </c>
       <c r="P8" s="98" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:16" s="75" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10604,21 +14877,21 @@
         <v>390</v>
       </c>
       <c r="J9" s="142" t="s">
-        <v>398</v>
+        <v>610</v>
       </c>
       <c r="K9" s="143"/>
       <c r="L9" s="94" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M9" s="142" t="s">
-        <v>401</v>
+        <v>611</v>
       </c>
       <c r="N9" s="143"/>
       <c r="O9" s="91" t="s">
         <v>129</v>
       </c>
       <c r="P9" s="99" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
